--- a/experiment/nonconvex/MitsosBarton2006Ex312/compare/M-Estacionario/MitsosBarton2006Ex312_M-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/compare/M-Estacionario/MitsosBarton2006Ex312_M-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>4.019453072149748</v>
       </c>
       <c r="E2">
-        <v>0.1019713</v>
+        <v>0.1762256</v>
       </c>
       <c r="F2">
-        <v>0.1204075</v>
+        <v>0.2748932</v>
       </c>
       <c r="G2">
-        <v>0.11147325555555555</v>
+        <v>0.23159810909090908</v>
       </c>
       <c r="H2">
         <v>29023</v>
